--- a/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_34.225.211.137/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_34.225.211.137/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_OutNet_34.225.211.137\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F46E3D-AB1B-4E47-9F44-B4094598478F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE3A45-867E-4788-AAF6-CF173D6AC6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3852" yWindow="1092" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>所属进程</t>
   </si>
@@ -138,16 +138,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Map3</t>
+  </si>
+  <si>
+    <t>zpbTest</t>
+  </si>
+  <si>
     <t>Dynamic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Room</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Match</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>PlayerCache</t>
+  </si>
+  <si>
+    <t>Mail</t>
   </si>
 </sst>
 </file>
@@ -571,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -802,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>33</v>
@@ -819,10 +834,112 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_34.225.211.137/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_34.225.211.137/StartSceneConfig.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_OutNet_34.225.211.137\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0804CD11-1E87-406C-AD88-9509A3372A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StartSceneConfig" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Robot区" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Router" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
+    <sheet name="Router" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,162 +27,143 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
-  <si>
-    <t xml:space="preserve">##var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SceneType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OuterPort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">所属进程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">所属区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外网端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zpbTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PlayerCache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RouterManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router04</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>SceneType</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>OuterPort</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>所属进程</t>
+  </si>
+  <si>
+    <t>所属区</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>外网端口</t>
+  </si>
+  <si>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Gate2</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map1</t>
+  </si>
+  <si>
+    <t>Map2</t>
+  </si>
+  <si>
+    <t>Map3</t>
+  </si>
+  <si>
+    <t>zpbTest</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>PlayerCache</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot01</t>
+  </si>
+  <si>
+    <t>RouterManager</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router01</t>
+  </si>
+  <si>
+    <t>Router02</t>
+  </si>
+  <si>
+    <t>Router03</t>
+  </si>
+  <si>
+    <t>Router04</t>
+  </si>
+  <si>
+    <t>Season</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -208,6 +194,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -230,7 +221,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -238,93 +229,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Good" xfId="20"/>
-    <cellStyle name="Excel Built-in Bad" xfId="21"/>
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Bad" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -383,33 +326,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="9"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -433,7 +684,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -457,7 +708,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -481,14 +732,14 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -497,18 +748,18 @@
       <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>30002</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -517,18 +768,18 @@
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="7">
         <v>30003</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="n">
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -537,18 +788,18 @@
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>30004</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="n">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -559,14 +810,14 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="n">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -577,14 +828,14 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="n">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -595,14 +846,14 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="n">
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -613,14 +864,14 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="n">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -630,14 +881,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="n">
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -647,14 +898,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -664,14 +915,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="n">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -681,14 +932,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -698,14 +949,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="n">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -715,14 +966,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -732,14 +983,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="n">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -749,39 +1000,49 @@
         <v>32</v>
       </c>
     </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="9"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -804,7 +1065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -827,7 +1088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -850,15 +1111,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="9">
         <v>200</v>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="n">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
         <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -870,7 +1131,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -880,7 +1141,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -890,7 +1151,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -900,7 +1161,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -910,7 +1171,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -920,66 +1181,59 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.56"/>
+    <col min="1" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1048,14 +1302,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>300</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1064,18 +1318,18 @@
       <c r="F4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>3478</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>301</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1084,18 +1338,18 @@
       <c r="F5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="7">
         <v>3479</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>302</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1104,18 +1358,18 @@
       <c r="F6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>3480</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>303</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="n">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1124,18 +1378,18 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="7">
         <v>3481</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>304</v>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="n">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1144,17 +1398,13 @@
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>3482</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_34.225.211.137/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_34.225.211.137/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_OutNet_34.225.211.137\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0804CD11-1E87-406C-AD88-9509A3372A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981F5507-06F8-4EEE-9834-5258786D3D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Season</t>
+  </si>
+  <si>
+    <t>ActionFromHttp</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK19"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B20" sqref="B20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -966,7 +969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -983,7 +986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -1015,6 +1018,26 @@
       </c>
       <c r="F19" s="2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>504</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6088</v>
       </c>
     </row>
   </sheetData>
